--- a/petrovalexandra152/evidence.xlsx
+++ b/petrovalexandra152/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\2-27. Millennium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\###002-27. Millennium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -57,27 +57,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -172,6 +157,159 @@
   </si>
   <si>
     <t>9262AB9929F5C8BD2BC8C0E88C1E2696F02358B6F2441AB6FA4898A14C007E1A</t>
+  </si>
+  <si>
+    <t>ibc/CCFCD86566F30616BFA88ACA4248089273556CD8D0B75252A3CEBCB63560C685</t>
+  </si>
+  <si>
+    <t>millennium007</t>
+  </si>
+  <si>
+    <t>ibc/83A0231A76D78F85B741E3B5BAA995BAE6FB93B4FC030F56DDA352001167DD7A</t>
+  </si>
+  <si>
+    <t>millennium008</t>
+  </si>
+  <si>
+    <t>ibc/8C83CB0514CAD3207824490F6FD1BCC5036E711661B6F909ECF22C2E530D470B</t>
+  </si>
+  <si>
+    <t>millennium009</t>
+  </si>
+  <si>
+    <t>ibc/17220E8C3DA9C3CF0126A3CCD5B4E6814285B9098A70856FE37F9A52362E5E73</t>
+  </si>
+  <si>
+    <t>millennium0010</t>
+  </si>
+  <si>
+    <t>ibc/E59AFC2C9EE4C2C917A7B50038F17FD4789D4AA3E52C02273631AEDFB0A3F799</t>
+  </si>
+  <si>
+    <t>millennium0011</t>
+  </si>
+  <si>
+    <t>ibc/37BCDEA8F1B1CF9CE61CB847FF4D0BE559582DF4CB4581DA554DBADAF8672CC6</t>
+  </si>
+  <si>
+    <t>millennium0012</t>
+  </si>
+  <si>
+    <t>6E9AEC10E1D396C3163289FF7742D950F7113E6AB0C3E625AACECDFE2F8C8D57</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>0DD1D2E62D2AF98B5784324D5A8063BC78270045E3FCD84BB064416D5CAE3EDF</t>
+  </si>
+  <si>
+    <t>0DE624388DC3387B3CA2ED1EDCC6473FC58AB07DCE86EF16DF42215706303A82</t>
+  </si>
+  <si>
+    <t>9BCFAB449BF76289C290BEAB8CBA42F33F80435EB4F87B002949017E3D650717</t>
+  </si>
+  <si>
+    <t>E967252A1F839A16C9CBF8FF0892344FB338FECBA5DEA7595F2F8CE8BC8C1F25</t>
+  </si>
+  <si>
+    <t>7AFE3CE0FE5336825F3D37E308D6F30AD27316C8BDAA0D95A78D27EC23FADF79</t>
+  </si>
+  <si>
+    <t>8E012E0CC35428100EF50C4ED02DC370B438871A099C417AF79B662E83758073</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>CE8E36F7BA940E8B88309CB6A729B3617FB7ABBDC6B58143BA7C0086EC440A05</t>
+  </si>
+  <si>
+    <t>BB9FC5217DCF2D97F32331377D9529F3E4225F9E9F494B5BF4EFE612951D23FF</t>
+  </si>
+  <si>
+    <t>B5C863A6A8AA5B18BD3C06A530413C21B242AFC8BBB176988BDF78D3F4F9671E</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>A9DC5C4136C0414EA14C447743862F536D4614CD464A91F9B22E31C564FD9570</t>
+  </si>
+  <si>
+    <t>36E5373E1246D3BBB1B4035E9B3BC29619A6A205BAA4BDE92399209731ACF7F0</t>
+  </si>
+  <si>
+    <t>860AD919F70EC31F5BB222DC87A4C9D5FA423297FD4D637A9BE21381CF16CB9D</t>
+  </si>
+  <si>
+    <t>E2291EB9A4E53C8210C2DABFCBBAF32BA69134D72FD87249429D8E62617E30F4</t>
+  </si>
+  <si>
+    <t>D5494F6899E097A1EDEDCB5C689943DE75E1ECB3511C07A67FE0591F3C505A1C</t>
+  </si>
+  <si>
+    <t>C27D81F9512D6FE173D1C5C8EEBA874C5B1D7D8E22B40592218A0EC9C9E1B7CB</t>
+  </si>
+  <si>
+    <t>1E3ED0AEDE12D026ACBA7FA7CA5D5EAF9FE35DE425BA080A83DC61909ECE4D59</t>
+  </si>
+  <si>
+    <t>720D2D1B0857A6A945E178F8BAAB269BF870FCFF80D75C1FB1D3A13F44F820D3</t>
+  </si>
+  <si>
+    <t>3DF22A3510F5D6B4FFCFA9181CFFDDD97AA8A6FBEFF6611DC04B184274AAB08C</t>
+  </si>
+  <si>
+    <t>B518A11828A70349D02792FF8A079B611E8B20C526EB5F0DE6A1C3759F0B22FD</t>
+  </si>
+  <si>
+    <t>4954F37B0A2DDEEEE9E1D86AC67FF0E91F1733DF58ECCD80AA58D1527459F46C</t>
+  </si>
+  <si>
+    <t>88D4C198465633E837D713ECA35184DF48B6BDC809175EFD49A140673103D7AA</t>
+  </si>
+  <si>
+    <t>5A099D141749DE7323AE486AEF95887E4303B510AC570288727B6DF7651BA3D6</t>
+  </si>
+  <si>
+    <t>F69C1A1EB5DE11FB5D1D0B7884ABD575D3064BCE52B67143C26288F03C0694B5</t>
+  </si>
+  <si>
+    <t>72F56D565F1FF19C868D7CD692A93D493FB725C0C2D0D135E2C8803B25A1A5A5</t>
+  </si>
+  <si>
+    <t>EC1F750FA5D1C433BFE0D1CAB4619FB369B98139F07F92A2FFC491E2289699F2</t>
+  </si>
+  <si>
+    <t>86D46351A148BEF38A9FB1E3B9B47BCCBC47CEC8CD5FD45701FD9F3998A90952</t>
+  </si>
+  <si>
+    <t>43F8C0ABEC9200D1387DD6CF8243B1236643E998E040BB9C003E339137FA8100</t>
+  </si>
+  <si>
+    <t>4D651DEBDB7825F9FD3EEE2DB6A72B33BA02E60D7094A3BECF5B30B43B227F2A</t>
+  </si>
+  <si>
+    <t>C8B6B6A0B0D3BE86DD65571A229F408E98A560869FDB02F55EDDA6400B01465E</t>
+  </si>
+  <si>
+    <t>96FD22E731CF3644A5F4CFDA03742FA6CD580C722C2677ECD43F0BB99C323650</t>
+  </si>
+  <si>
+    <t>8DE11520A6AB633BF199A7D277581504ED5809C1047C88BE5BD9ED1CD6DD23A7</t>
+  </si>
+  <si>
+    <t>8D2F50599351576CC7509CBE3E4281DC3A3135554A0CC38B9F08D6E2A28573EC</t>
+  </si>
+  <si>
+    <t>8B1E73762E1419B5716ADD3C01D8D20C43278697A847144A52CF1DF4E8D06E52</t>
+  </si>
+  <si>
+    <t>A1124A4B9FA68813B62F3D1634C3F284225E20BBBCAD08A5C3B6055A3EEDDB85</t>
+  </si>
+  <si>
+    <t>0F06166CE9ADB21C42B5C349ABC8A5B7B3F165DC1813E33D02F25FE6F4487FF7</t>
   </si>
 </sst>
 </file>
@@ -569,7 +707,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,55 +724,55 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -648,7 +786,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -658,18 +798,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +824,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -694,18 +836,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +862,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -730,18 +874,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +900,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -766,18 +912,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -790,9 +936,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -810,23 +958,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -838,9 +998,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,23 +1020,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,9 +1060,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,23 +1082,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,9 +1122,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -954,23 +1144,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,9 +1184,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1002,23 +1206,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,9 +1246,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1050,23 +1268,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1094,15 +1324,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1116,9 +1346,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1136,23 +1368,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,9 +1424,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1184,23 +1446,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,43 +1655,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1443,16 +1733,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1494,16 +1784,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1534,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1545,16 +1835,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1597,31 +1887,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1631,54 +1962,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
